--- a/Data/MatHardship.xlsx
+++ b/Data/MatHardship.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenkinnucan/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1267A1ED-4497-AE42-8A4B-FC7924939D22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B30C0148-0730-A64C-BEC4-A0C4976FAF55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33780" yWindow="1500" windowWidth="26840" windowHeight="15540" xr2:uid="{6A9B8328-D8DF-0F41-AC65-BD9BFAFEDE67}"/>
+    <workbookView xWindow="11700" yWindow="460" windowWidth="28800" windowHeight="16420" xr2:uid="{6A9B8328-D8DF-0F41-AC65-BD9BFAFEDE67}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -152,30 +152,30 @@
 •	Not applicable </t>
   </si>
   <si>
+    <t>Provided by Urban Institute</t>
+  </si>
+  <si>
+    <t>Provided by Urban Institute
+Modified from the U.S. Census Bureau's Household Pulse Survey</t>
+  </si>
+  <si>
+    <t>U.S. Household Food Security Survey Module: Six-Item Short Form Economic Research Service, USDA
+September 2012</t>
+  </si>
+  <si>
+    <t>Current
+21, 23, 25, 27, 31</t>
+  </si>
+  <si>
+    <t>Current
+19, 21, 23, 25, 27, 31</t>
+  </si>
+  <si>
     <t>•	Not at all worried
 •	Slightly worried
 •	Somewhat worried
 •	Very worried
-•	Extremely worried</t>
-  </si>
-  <si>
-    <t>Provided by Urban Institute</t>
-  </si>
-  <si>
-    <t>Provided by Urban Institute
-Modified from the U.S. Census Bureau's Household Pulse Survey</t>
-  </si>
-  <si>
-    <t>U.S. Household Food Security Survey Module: Six-Item Short Form Economic Research Service, USDA
-September 2012</t>
-  </si>
-  <si>
-    <t>Current
-19, 21</t>
-  </si>
-  <si>
-    <t>Current
-21</t>
+•	Extremely worried                          •Not applicable</t>
   </si>
 </sst>
 </file>
@@ -565,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{842122ED-E79D-7A4C-9F86-9FAAC7BAE898}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -609,7 +609,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>34</v>
@@ -623,7 +623,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>34</v>
@@ -637,7 +637,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>34</v>
@@ -651,7 +651,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>34</v>
@@ -665,7 +665,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>34</v>
@@ -687,7 +687,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>34</v>
@@ -701,7 +701,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>34</v>
@@ -715,7 +715,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>34</v>
@@ -729,7 +729,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>34</v>
@@ -743,7 +743,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>34</v>
@@ -757,7 +757,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>34</v>
@@ -771,10 +771,10 @@
         <v>29</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -785,10 +785,10 @@
         <v>29</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -799,10 +799,10 @@
         <v>29</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -813,10 +813,10 @@
         <v>29</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -827,10 +827,10 @@
         <v>29</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -841,94 +841,94 @@
         <v>29</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="D21" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="D22" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="D23" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="D24" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="D25" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="D26" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Data/MatHardship.xlsx
+++ b/Data/MatHardship.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenkinnucan/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0C1DB1-5617-CB45-8344-90D32F3FBED0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C37E4AE-28EE-7D42-A1AF-606F35CF4E94}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="680" windowWidth="27240" windowHeight="15520" xr2:uid="{A705D2F7-AE6D-C449-B5A3-CFC894113135}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="30">
   <si>
     <t>Question</t>
   </si>
@@ -69,66 +69,78 @@
     <t xml:space="preserve">In the last 30 days, the gas or electric company turned off service, or the oil company would not deliver oil. </t>
   </si>
   <si>
-    <t>For the next set of questions, please think about the upcoming month.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How worried are you about your household not being able to pay the full amount of the rent or mortgage or being late with a payment because your household cannot afford to pay in the next month? </t>
-  </si>
-  <si>
-    <t>•	Not at all worried
-•	Slightly worried
-•	Somewhat worried
-•	Very worried
-•	Extremely worried</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How worried are you about having enough money to pay for food to feed your household in the next month? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">If you rent the place you currently live, how worried are you about being evicted in the next month? </t>
-  </si>
-  <si>
-    <t>If you own the home where you currently live, how worried are you about your mortgage being foreclosed on in the next month?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How worried are you about household not being able to pay the full amount of the gas, oil, or electricity bills in the next month?   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">How worried are you about the gas or electric company turning off service, or the oil company not delivering oil in the next month?  </t>
-  </si>
-  <si>
-    <t>Frequency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For the next set of statements, please think about the last 30 days. </t>
-  </si>
-  <si>
     <t>19, 21, 23, 25, 27, 31, 33, 37, 39</t>
   </si>
   <si>
-    <t>If you rent the place you currently live, have you received an eviction notice in the last 30 days?</t>
-  </si>
-  <si>
-    <t>If you own the home where you currently live, have you received a notice of foreclosure in the last 30 days?</t>
-  </si>
-  <si>
     <t>Open ended</t>
   </si>
   <si>
-    <t>[Display this question if "If you rent the place you currently live, how worried are you about being evicted in the next month?" =/ Not applicable or Not at all worried OR "If you own the home where you currently live, how worried are you about your mortgae being foreclosed on in the next month?" =/ Not applicable or Not at all worried]        Is there anything else you would like to share about your concern about eviction or foreclosure?</t>
-  </si>
-  <si>
     <t>RAPID Team Developed</t>
+  </si>
+  <si>
+    <t>Source Link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please think about the upcoming month: How worried are you about your household not being able to pay the full amount of the rent or mortgage or being late with a payment because your household cannot afford to pay in the next month? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please think about the upcoming month: How worried are you about having enough money to pay for food to feed your household in the next month? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please think about the upcoming month: If you rent the place you currently live, how worried are you about being evicted in the next month? </t>
+  </si>
+  <si>
+    <t>Please think about the upcoming month: If you rent the place you currently live, have you received an eviction notice in the last 30 days?</t>
+  </si>
+  <si>
+    <t>Please think about the upcoming month: If you own the home where you currently live, how worried are you about your mortgage being foreclosed on in the next month?</t>
+  </si>
+  <si>
+    <t>Please think about the upcoming month: If you own the home where you currently live, have you received a notice of foreclosure in the last 30 days?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please think about the upcoming month: How worried are you about household not being able to pay the full amount of the gas, oil, or electricity bills in the next month?   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please think about the upcoming month: How worried are you about the gas or electric company turning off service, or the oil company not delivering oil in the next month?  </t>
+  </si>
+  <si>
+    <t>[Display this question if "If you rent the place you currently live, how worried are you about being evicted in the next month?"  Not applicable or Not at all worried is NOT selected OR "If you own the home where you currently live, how worried are you about your mortgae being foreclosed on in the next month?" Not applicable or Not at all worrie is NOT selected] 
+Is there anything else you would like to share about your concern about eviction or foreclosure?</t>
+  </si>
+  <si>
+    <t>•Not at all worried
+•Slightly worried
+•Somewhat worried
+•Very worried
+•Extremely worried</t>
+  </si>
+  <si>
+    <t>19, 21, 23, 25, 27, 31, 33, 37, 39, 41</t>
+  </si>
+  <si>
+    <t>39, 41</t>
+  </si>
+  <si>
+    <t>https://www.census.gov/data/experimental-data-products/household-pulse-survey.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -151,17 +163,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -474,19 +493,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49676864-9EBD-4C4B-9DF2-7906225AEBD2}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="92" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="92" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="41.83203125" style="2" customWidth="1"/>
     <col min="2" max="2" width="37.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="22.5" style="2" customWidth="1"/>
+    <col min="3" max="4" width="25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" style="2" customWidth="1"/>
     <col min="6" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
@@ -501,24 +519,32 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
@@ -526,27 +552,31 @@
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="D3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
@@ -554,13 +584,14 @@
       <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>23</v>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -568,13 +599,14 @@
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>23</v>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -582,159 +614,150 @@
       <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="85" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>23</v>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="D12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="D13" s="1">
-        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="204" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="1">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="85" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="85" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="170" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="2">
-        <v>39</v>
-      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{A6D00530-AB76-4A47-A474-C7B6AB70140B}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{D097680E-0965-324B-9918-2352E3E4BB01}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data/MatHardship.xlsx
+++ b/Data/MatHardship.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmyescanlar/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741FD69D-B497-7948-B205-6C919DF7553F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA54B423-2A21-B14A-8658-FF92B4D96323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45420" yWindow="-4020" windowWidth="22440" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19400" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -114,15 +114,6 @@
     <t>Open ended</t>
   </si>
   <si>
-    <t>19, 21, 23, 25, 27, 31, 33, 37, 39, 41, 45, 49, 53, 57, 61</t>
-  </si>
-  <si>
-    <t>39, 41, 45, 49, 53, 57, 61</t>
-  </si>
-  <si>
-    <t>19, 21, 23, 25, 27, 31, 33, 37, 39, 45, 49, 53, 57, 61</t>
-  </si>
-  <si>
     <t>If you rent the place you currently live, have you received an eviction notice in the last 30 days?</t>
   </si>
   <si>
@@ -140,6 +131,15 @@
 •Very worried
 •Extremely worried
 •Not applicable </t>
+  </si>
+  <si>
+    <t>19, 21, 23, 25, 27, 31, 33, 37, 39, 41, 45, 49, 53, 57, 61, 65</t>
+  </si>
+  <si>
+    <t>39, 41, 45, 49, 53, 57, 61, 65</t>
+  </si>
+  <si>
+    <t>19, 21, 23, 25, 27, 31, 33, 37, 39, 45, 49, 53, 57, 61, 65</t>
   </si>
 </sst>
 </file>
@@ -1387,8 +1387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1432,7 +1432,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="68" customHeight="1" x14ac:dyDescent="0.2">
@@ -1449,7 +1449,7 @@
         <v>8</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -1494,7 +1494,7 @@
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -1509,27 +1509,27 @@
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="6" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>6</v>
@@ -1539,7 +1539,7 @@
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="6" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.2">
@@ -1547,14 +1547,14 @@
         <v>15</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.2">
@@ -1562,14 +1562,14 @@
         <v>17</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="102" x14ac:dyDescent="0.2">
@@ -1577,14 +1577,14 @@
         <v>18</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="102" x14ac:dyDescent="0.2">
@@ -1592,14 +1592,14 @@
         <v>20</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.2">
@@ -1614,7 +1614,7 @@
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="6" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.2">
@@ -1629,7 +1629,7 @@
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="6" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="204" customHeight="1" x14ac:dyDescent="0.2">
@@ -1644,7 +1644,7 @@
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="6" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
